--- a/data/trans_bre/P25A_9_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,7 +657,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,27 +667,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -673,7 +725,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,25 +735,45 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,87; 10,85</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 3,25</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 7,12</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14,08%</t>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59,61%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>527,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,48</t>
+          <t>0,55; 4,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,91</t>
+          <t>0,48; 4,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 45,83</t>
+          <t>-2,97; 4,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-3,82; 4,71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 8,73</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-76,54; —</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-78,05; 699,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -825,37 +937,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>464,11%</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>6,01</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>402,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1091,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1130,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>507,96%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>652,78%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>566,32%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,64</t>
+          <t>0,02; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,47</t>
+          <t>1,06; 4,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,11</t>
+          <t>1,43; 5,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 39,37</t>
+          <t>1,65; 8,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>3,24; 11,21</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 10,09</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-61,94; —</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46,14; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>98,63; 2499,61</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,79</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>178,74%</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>392,54%</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>363,25%</t>
+          <t>181,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,92%</t>
+          <t>361,15%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>369,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69,52%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>340,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>351,81%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,98</t>
+          <t>0,59; 6,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,85</t>
+          <t>1,11; 5,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,86</t>
+          <t>1,72; 6,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 11,73</t>
+          <t>-1,96; 6,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 841,87</t>
+          <t>4,66; 14,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,41; 2014,41</t>
+          <t>3,65; 10,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,23; 2313,22</t>
+          <t>0,32; 857,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,17; 55,15</t>
+          <t>39,18; 1800,69</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59,74; 1735,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-46,49; 399,14</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>84,43; 1189,12</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81,98; 1172,66</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,14</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>261,55%</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>248,73%</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>275,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-24,56%</t>
+          <t>230,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66,26%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>90,52%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 10,0</t>
+          <t>2,29; 10,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,43</t>
+          <t>1,49; 8,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 3,9</t>
+          <t>-3,12; 3,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 12,55</t>
+          <t>-0,59; 11,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,0; 1074,23</t>
+          <t>-1,89; 10,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,32; 903,66</t>
+          <t>0,4; 12,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 142,64</t>
+          <t>34,8; 1133,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 25,53</t>
+          <t>33,0; 893,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-54,44; 137,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 231,05</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-18,88; 185,69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 286,89</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,68</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>169,11%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,52%</t>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>191,46%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77,45%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>126,27%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 11,37</t>
+          <t>-4,94; 11,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,8</t>
+          <t>-4,52; 7,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 15,53</t>
+          <t>4,0; 17,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 8,03</t>
+          <t>-1,62; 11,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 177,83</t>
+          <t>-5,07; 10,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 140,67</t>
+          <t>3,32; 19,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,2; 463,16</t>
+          <t>-32,26; 182,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,04; 38,66</t>
+          <t>-36,18; 141,75</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 574,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; 362,83</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-35,4; 156,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 393,63</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>141,22%</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>141,39%</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>205,39%</t>
+          <t>134,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-24,89%</t>
+          <t>144,55%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>217,18%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>124,16%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>116,49%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>214,89%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,96</t>
+          <t>1,48; 4,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,9</t>
+          <t>1,43; 4,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,06</t>
+          <t>2,25; 5,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 1,69</t>
+          <t>2,08; 6,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,03; 302,47</t>
+          <t>2,8; 7,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,3; 303,13</t>
+          <t>4,36; 9,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,34; 390,5</t>
+          <t>30,28; 301,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 7,47</t>
+          <t>52,11; 296,6</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>88,66; 406,33</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48,15; 255,49</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>49,79; 217,54</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>108,84; 386,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
